--- a/data/국제기름가격.xlsx
+++ b/data/국제기름가격.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madda\.ssh\project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28652F09-F0C4-4E3F-9E37-4A5796C34101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF99FA51-3434-4577-AB2F-E61557B273DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>날짜</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>휘발유(95RON)</t>
   </si>
@@ -38,18 +35,434 @@
   </si>
   <si>
     <t>경유(0.001%)</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>10월 01일</t>
+  </si>
+  <si>
+    <t>10월 04일</t>
+  </si>
+  <si>
+    <t>10월 05일</t>
+  </si>
+  <si>
+    <t>10월 06일</t>
+  </si>
+  <si>
+    <t>10월 07일</t>
+  </si>
+  <si>
+    <t>10월 08일</t>
+  </si>
+  <si>
+    <t>10월 11일</t>
+  </si>
+  <si>
+    <t>10월 12일</t>
+  </si>
+  <si>
+    <t>10월 13일</t>
+  </si>
+  <si>
+    <t>10월 14일</t>
+  </si>
+  <si>
+    <t>10월 15일</t>
+  </si>
+  <si>
+    <t>10월 18일</t>
+  </si>
+  <si>
+    <t>10월 19일</t>
+  </si>
+  <si>
+    <t>10월 20일</t>
+  </si>
+  <si>
+    <t>10월 21일</t>
+  </si>
+  <si>
+    <t>10월 22일</t>
+  </si>
+  <si>
+    <t>10월 25일</t>
+  </si>
+  <si>
+    <t>10월 26일</t>
+  </si>
+  <si>
+    <t>10월 27일</t>
+  </si>
+  <si>
+    <t>10월 28일</t>
+  </si>
+  <si>
+    <t>10월 29일</t>
+  </si>
+  <si>
+    <t>11월 01일</t>
+  </si>
+  <si>
+    <t>11월 02일</t>
+  </si>
+  <si>
+    <t>11월 03일</t>
+  </si>
+  <si>
+    <t>11월 05일</t>
+  </si>
+  <si>
+    <t>11월 08일</t>
+  </si>
+  <si>
+    <t>11월 09일</t>
+  </si>
+  <si>
+    <t>11월 10일</t>
+  </si>
+  <si>
+    <t>11월 11일</t>
+  </si>
+  <si>
+    <t>11월 12일</t>
+  </si>
+  <si>
+    <t>11월 15일</t>
+  </si>
+  <si>
+    <t>11월 16일</t>
+  </si>
+  <si>
+    <t>11월 17일</t>
+  </si>
+  <si>
+    <t>11월 18일</t>
+  </si>
+  <si>
+    <t>11월 19일</t>
+  </si>
+  <si>
+    <t>11월 22일</t>
+  </si>
+  <si>
+    <t>11월 23일</t>
+  </si>
+  <si>
+    <t>11월 24일</t>
+  </si>
+  <si>
+    <t>11월 25일</t>
+  </si>
+  <si>
+    <t>11월 26일</t>
+  </si>
+  <si>
+    <t>11월 29일</t>
+  </si>
+  <si>
+    <t>11월 30일</t>
+  </si>
+  <si>
+    <t>12월 01일</t>
+  </si>
+  <si>
+    <t>12월 02일</t>
+  </si>
+  <si>
+    <t>12월 03일</t>
+  </si>
+  <si>
+    <t>12월 06일</t>
+  </si>
+  <si>
+    <t>12월 07일</t>
+  </si>
+  <si>
+    <t>12월 08일</t>
+  </si>
+  <si>
+    <t>12월 09일</t>
+  </si>
+  <si>
+    <t>12월 10일</t>
+  </si>
+  <si>
+    <t>12월 13일</t>
+  </si>
+  <si>
+    <t>12월 14일</t>
+  </si>
+  <si>
+    <t>12월 15일</t>
+  </si>
+  <si>
+    <t>12월 16일</t>
+  </si>
+  <si>
+    <t>12월 17일</t>
+  </si>
+  <si>
+    <t>12월 20일</t>
+  </si>
+  <si>
+    <t>12월 21일</t>
+  </si>
+  <si>
+    <t>12월 22일</t>
+  </si>
+  <si>
+    <t>12월 23일</t>
+  </si>
+  <si>
+    <t>12월 24일</t>
+  </si>
+  <si>
+    <t>12월 28일</t>
+  </si>
+  <si>
+    <t>12월 29일</t>
+  </si>
+  <si>
+    <t>12월 30일</t>
+  </si>
+  <si>
+    <t>12월 31일</t>
+  </si>
+  <si>
+    <t>01월 03일</t>
+  </si>
+  <si>
+    <t>01월 04일</t>
+  </si>
+  <si>
+    <t>01월 05일</t>
+  </si>
+  <si>
+    <t>01월 06일</t>
+  </si>
+  <si>
+    <t>01월 07일</t>
+  </si>
+  <si>
+    <t>01월 10일</t>
+  </si>
+  <si>
+    <t>01월 11일</t>
+  </si>
+  <si>
+    <t>01월 12일</t>
+  </si>
+  <si>
+    <t>01월 13일</t>
+  </si>
+  <si>
+    <t>01월 14일</t>
+  </si>
+  <si>
+    <t>01월 17일</t>
+  </si>
+  <si>
+    <t>01월 18일</t>
+  </si>
+  <si>
+    <t>01월 19일</t>
+  </si>
+  <si>
+    <t>01월 20일</t>
+  </si>
+  <si>
+    <t>01월 21일</t>
+  </si>
+  <si>
+    <t>01월 24일</t>
+  </si>
+  <si>
+    <t>01월 25일</t>
+  </si>
+  <si>
+    <t>01월 26일</t>
+  </si>
+  <si>
+    <t>01월 27일</t>
+  </si>
+  <si>
+    <t>01월 28일</t>
+  </si>
+  <si>
+    <t>01월 31일</t>
+  </si>
+  <si>
+    <t>02월 03일</t>
+  </si>
+  <si>
+    <t>02월 04일</t>
+  </si>
+  <si>
+    <t>02월 07일</t>
+  </si>
+  <si>
+    <t>02월 08일</t>
+  </si>
+  <si>
+    <t>02월 09일</t>
+  </si>
+  <si>
+    <t>02월 10일</t>
+  </si>
+  <si>
+    <t>02월 11일</t>
+  </si>
+  <si>
+    <t>02월 14일</t>
+  </si>
+  <si>
+    <t>02월 15일</t>
+  </si>
+  <si>
+    <t>02월 16일</t>
+  </si>
+  <si>
+    <t>02월 17일</t>
+  </si>
+  <si>
+    <t>02월 18일</t>
+  </si>
+  <si>
+    <t>02월 21일</t>
+  </si>
+  <si>
+    <t>02월 22일</t>
+  </si>
+  <si>
+    <t>02월 23일</t>
+  </si>
+  <si>
+    <t>02월 24일</t>
+  </si>
+  <si>
+    <t>02월 25일</t>
+  </si>
+  <si>
+    <t>02월 28일</t>
+  </si>
+  <si>
+    <t>03월 01일</t>
+  </si>
+  <si>
+    <t>03월 02일</t>
+  </si>
+  <si>
+    <t>03월 03일</t>
+  </si>
+  <si>
+    <t>03월 04일</t>
+  </si>
+  <si>
+    <t>03월 07일</t>
+  </si>
+  <si>
+    <t>03월 08일</t>
+  </si>
+  <si>
+    <t>03월 09일</t>
+  </si>
+  <si>
+    <t>03월 10일</t>
+  </si>
+  <si>
+    <t>03월 11일</t>
+  </si>
+  <si>
+    <t>03월 14일</t>
+  </si>
+  <si>
+    <t>03월 15일</t>
+  </si>
+  <si>
+    <t>03월 16일</t>
+  </si>
+  <si>
+    <t>03월 17일</t>
+  </si>
+  <si>
+    <t>03월 18일</t>
+  </si>
+  <si>
+    <t>03월 21일</t>
+  </si>
+  <si>
+    <t>03월 22일</t>
+  </si>
+  <si>
+    <t>03월 23일</t>
+  </si>
+  <si>
+    <t>03월 24일</t>
+  </si>
+  <si>
+    <t>03월 25일</t>
+  </si>
+  <si>
+    <t>03월 28일</t>
+  </si>
+  <si>
+    <t>03월 29일</t>
+  </si>
+  <si>
+    <t>03월 30일</t>
+  </si>
+  <si>
+    <t>03월 31일</t>
+  </si>
+  <si>
+    <t>04월 01일</t>
+  </si>
+  <si>
+    <t>04월 04일</t>
+  </si>
+  <si>
+    <t>04월 05일</t>
+  </si>
+  <si>
+    <t>04월 06일</t>
+  </si>
+  <si>
+    <t>04월 07일</t>
+  </si>
+  <si>
+    <t>04월 08일</t>
+  </si>
+  <si>
+    <t>04월 11일</t>
+  </si>
+  <si>
+    <t>04월 12일</t>
+  </si>
+  <si>
+    <t>04월 13일</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -208,6 +621,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -394,24 +815,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F1"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5FFED"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -559,114 +980,158 @@
         <color rgb="FF008000"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF008000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF008000"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF008000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF008000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF008000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF008000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF008000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF008000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,10 +1140,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,10 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,10 +1158,7 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,10 +1167,7 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,58 +1176,73 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="12" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="63">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1 2" xfId="45" xr:uid="{0BB7AD57-C7A5-423C-BC60-22B564FB572E}"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2 2" xfId="48" xr:uid="{711841C1-AC30-4B26-9505-C7EB1E532EF2}"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3 2" xfId="51" xr:uid="{062ACEEE-A59B-4F7F-A4D2-9E6C868E16CA}"/>
     <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4 2" xfId="54" xr:uid="{B3759C0F-F152-429E-8D29-66B59E6A3697}"/>
     <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5 2" xfId="57" xr:uid="{2C99926B-E4DC-48D6-B6D7-0422813BF3F7}"/>
     <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6 2" xfId="60" xr:uid="{E4662ECD-5232-4DEF-9858-A0C7211B8040}"/>
     <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1 2" xfId="46" xr:uid="{26CAD49C-3B9E-4B25-9BAA-C7E1373C1D63}"/>
     <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2 2" xfId="49" xr:uid="{AEFF5C50-C300-481C-9805-ED69D95B1C86}"/>
     <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3 2" xfId="52" xr:uid="{736F085A-0E41-4A1B-8766-CC3E132C8A46}"/>
     <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4 2" xfId="55" xr:uid="{D24B536F-108C-4256-96B5-3AACDE2F54EB}"/>
     <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5 2" xfId="58" xr:uid="{54B49934-85DF-4374-9127-E7A553BCF7CA}"/>
     <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6 2" xfId="61" xr:uid="{59B70B9C-472D-4C6B-ACE3-C941DE6ABEB4}"/>
     <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1 2" xfId="47" xr:uid="{288D557A-C2DD-4D29-950B-09E3E21F653F}"/>
     <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2 2" xfId="50" xr:uid="{FF48A702-EDDB-4FBC-91C4-A4DB26A2E3E9}"/>
     <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3 2" xfId="53" xr:uid="{DC659C28-5420-4711-87C3-39FA68E33597}"/>
     <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4 2" xfId="56" xr:uid="{70C8DFDE-3379-48E1-A2DE-A42BBBF73D97}"/>
     <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5 2" xfId="59" xr:uid="{D028C476-0404-4CB5-B859-041C80C34F02}"/>
     <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6 2" xfId="62" xr:uid="{A2031122-719D-42E8-B7B1-F164946083A3}"/>
     <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -785,7 +1253,9 @@
     <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="메모 2" xfId="44" xr:uid="{3CA52DC8-D154-4653-9A2C-FA5B663BB5F0}"/>
     <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="보통 2" xfId="43" xr:uid="{DF29A4D4-CD7B-4B37-873E-176589AC238D}"/>
     <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -799,6 +1269,7 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="42" xr:uid="{EDAD03FF-2BF8-43A4-9B7D-A048A5C99174}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1076,2643 +1547,3017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:F132"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.95"/>
   <cols>
-    <col min="1" max="1" width="15" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A2" s="6">
-        <v>44470</v>
-      </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="7">
         <v>88.18</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="7">
         <v>85.82</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="7">
         <v>85.78</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="7">
         <v>85.6</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="7">
         <v>88.56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="6">
-        <v>44473</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7">
         <v>89.69</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="7">
         <v>87.33</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="7">
         <v>87.82</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="7">
         <v>87.37</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="7">
         <v>90.33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="6">
-        <v>44474</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7">
         <v>92.48</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="7">
         <v>90.12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="7">
         <v>90.82</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="7">
         <v>90.3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="7">
         <v>93.22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="6">
-        <v>44475</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7">
         <v>94.39</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="7">
         <v>92.03</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="7">
         <v>92.79</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="7">
         <v>92.68</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="7">
         <v>95.38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="6">
-        <v>44476</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7">
         <v>90.52</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="7">
         <v>88.49</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="7">
         <v>87.74</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="7">
         <v>87.74</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="7">
         <v>90.41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A7" s="6">
-        <v>44477</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7">
         <v>94.72</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="7">
         <v>92.89</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="7">
         <v>92.38</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="7">
         <v>92.57</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="7">
         <v>95.15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="6">
-        <v>44480</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7">
         <v>96.7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="7">
         <v>94.86</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="7">
         <v>93.92</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="7">
         <v>94.15</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="7">
         <v>96.63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="6">
-        <v>44481</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7">
         <v>96.82</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="7">
         <v>94.53</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="7">
         <v>93.98</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="7">
         <v>94.35</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="7">
         <v>96.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="6">
-        <v>44482</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7">
         <v>96.34</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="7">
         <v>94.05</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="7">
         <v>92.59</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="7">
         <v>93.01</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="7">
         <v>95.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A11" s="6">
-        <v>44483</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7">
         <v>98.65</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="7">
         <v>96.36</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="7">
         <v>93.93</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="7">
         <v>94.54</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="7">
         <v>96.77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A12" s="6">
-        <v>44484</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7">
         <v>99.95</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="7">
         <v>97.13</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="7">
         <v>95.32</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="7">
         <v>96.09</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="7">
         <v>98.25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A13" s="6">
-        <v>44487</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7">
         <v>102.01</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="7">
         <v>98.36</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="7">
         <v>96.15</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="7">
         <v>96.9</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="7">
         <v>98.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A14" s="6">
-        <v>44488</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7">
         <v>101.47</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="7">
         <v>97.83</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="7">
         <v>95.33</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="7">
         <v>95.97</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="7">
         <v>97.71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A15" s="6">
-        <v>44489</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7">
         <v>100.02</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="7">
         <v>96.38</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="7">
         <v>94.73</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="7">
         <v>95.66</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="7">
         <v>97.04</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A16" s="6">
-        <v>44490</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7">
         <v>103.03</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="7">
         <v>99.39</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="7">
         <v>94.86</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="7">
         <v>95.65</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="7">
         <v>97.13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A17" s="6">
-        <v>44491</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7">
         <v>102.93</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="7">
         <v>99.38</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="7">
         <v>94.55</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="7">
         <v>95.35</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="7">
         <v>96.78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A18" s="6">
-        <v>44494</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7">
         <v>106.62</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="7">
         <v>103.07</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="7">
         <v>95.09</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="7">
         <v>95.92</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="7">
         <v>97.29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A19" s="6">
-        <v>44495</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7">
         <v>107.19</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="7">
         <v>103.64</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="7">
         <v>95.29</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="7">
         <v>96.05</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="7">
         <v>97.39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A20" s="6">
-        <v>44496</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7">
         <v>105.79</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="7">
         <v>102.29</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="7">
         <v>94.59</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="7">
         <v>95.39</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="7">
         <v>96.73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="6">
-        <v>44497</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7">
         <v>102.11</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="7">
         <v>98.61</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="7">
         <v>92.95</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="7">
         <v>93.78</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="7">
         <v>95.11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="6">
-        <v>44498</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7">
         <v>102.59</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="7">
         <v>99.09</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="7">
         <v>93.37</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="7">
         <v>94.09</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="7">
         <v>95.39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="6">
-        <v>44501</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7">
         <v>102.81</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="7">
         <v>99.31</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="7">
         <v>93.47</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="7">
         <v>94.29</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="7">
         <v>95.37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="6">
-        <v>44502</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7">
         <v>104.65</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="7">
         <v>101.15</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="7">
         <v>93.93</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="7">
         <v>94.9</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="6">
-        <v>44503</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7">
         <v>101.97</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="7">
         <v>98.57</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="7">
         <v>92.72</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="7">
         <v>93.68</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="7">
         <v>94.87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="6">
-        <v>44504</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7">
         <v>97.98</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="7">
         <v>94.58</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="7">
         <v>90.57</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="7">
         <v>92.25</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="7">
         <v>93.13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="6">
-        <v>44508</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7">
         <v>100.21</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="7">
         <v>96.81</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="7">
         <v>92.94</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="7">
         <v>94.96</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="7">
         <v>95.81</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="6">
-        <v>44509</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7">
         <v>99.9</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="7">
         <v>96.49</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="7">
         <v>93.48</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="7">
         <v>95.39</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="7">
         <v>96.05</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="6">
-        <v>44510</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7">
         <v>100</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="7">
         <v>97.25</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="7">
         <v>95.08</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="7">
         <v>97.18</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="7">
         <v>97.68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="6">
-        <v>44511</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7">
         <v>97.85</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="7">
         <v>95.1</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="7">
         <v>91.77</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="7">
         <v>93.91</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="7">
         <v>94.41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="6">
-        <v>44512</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7">
         <v>96.43</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="7">
         <v>93.54</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="7">
         <v>90.91</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="7">
         <v>93</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="7">
         <v>93.41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="6">
-        <v>44515</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7">
         <v>95.78</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="7">
         <v>92.89</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="7">
         <v>88.79</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="7">
         <v>90.84</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="7">
         <v>91.21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="6">
-        <v>44516</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7">
         <v>96.66</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="7">
         <v>94.1</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="7">
         <v>90.02</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="7">
         <v>92.48</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="7">
         <v>92.82</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="6">
-        <v>44517</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="7">
         <v>95.36</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="7">
         <v>93.14</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="7">
         <v>89.36</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="7">
         <v>91.88</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="7">
         <v>92.25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="6">
-        <v>44518</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="7">
         <v>91.77</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="7">
         <v>89.6</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="7">
         <v>86.95</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="7">
         <v>89.23</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="7">
         <v>89.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="6">
-        <v>44519</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7">
         <v>93.79</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="7">
         <v>91.57</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="7">
         <v>89</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="7">
         <v>91.29</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="7">
         <v>91.62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A37" s="6">
-        <v>44522</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="7">
         <v>89.06</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="7">
         <v>87.02</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="7">
         <v>86.19</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="7">
         <v>88.22</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="7">
         <v>88.55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A38" s="6">
-        <v>44523</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7">
         <v>89.62</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="7">
         <v>87.4</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="7">
         <v>86.02</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="7">
         <v>87.71</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="7">
         <v>88.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A39" s="6">
-        <v>44524</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7">
         <v>92.95</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="7">
         <v>90.55</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="7">
         <v>89.56</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="7">
         <v>90.97</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="7">
         <v>91.42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="6">
-        <v>44525</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7">
         <v>92.3</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="7">
         <v>89.9</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="7">
         <v>89.35</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="7">
         <v>90.89</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="7">
         <v>91.29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="6">
-        <v>44526</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="7">
         <v>87.04</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="7">
         <v>84.64</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="7">
         <v>82.96</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="7">
         <v>85.09</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="7">
         <v>85.33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="6">
-        <v>44529</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="7">
         <v>85.16</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="7">
         <v>82.76</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="7">
         <v>81.02</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="7">
         <v>83.29</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="7">
         <v>83.53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="6">
-        <v>44530</v>
-      </c>
-      <c r="B43" s="2">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7">
         <v>82.59</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="7">
         <v>80.180000000000007</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="7">
         <v>78.16</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="7">
         <v>80.27</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="7">
         <v>80.510000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7">
         <v>81.97</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="7">
         <v>79.569999999999993</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="7">
         <v>79.290000000000006</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="7">
         <v>80.430000000000007</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="7">
         <v>80.67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A45" s="6">
-        <v>44532</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7">
         <v>81.099999999999994</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="7">
         <v>78.849999999999994</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="7">
         <v>78.03</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="7">
         <v>79.52</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="7">
         <v>79.84</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A46" s="6">
-        <v>44533</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7">
         <v>83.02</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="7">
         <v>80.55</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="7">
         <v>80.34</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="7">
         <v>82.12</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="7">
         <v>82.44</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A47" s="6">
-        <v>44536</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="7">
         <v>82.63</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="7">
         <v>80.11</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="7">
         <v>79.19</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="7">
         <v>81.17</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="7">
         <v>81.58</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="6">
-        <v>44537</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="7">
         <v>86.5</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="7">
         <v>83.99</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="7">
         <v>82.75</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="7">
         <v>84.26</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="7">
         <v>84.75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="6">
-        <v>44538</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="7">
         <v>88.39</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="7">
         <v>85.88</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="7">
         <v>83.35</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="7">
         <v>85.11</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="7">
         <v>85.75</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="6">
-        <v>44539</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="7">
         <v>88.95</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="7">
         <v>87.03</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="7">
         <v>84.57</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="7">
         <v>86</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="7">
         <v>86.76</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="6">
-        <v>44540</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="7">
         <v>89.27</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="7">
         <v>86.67</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="7">
         <v>84.11</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="7">
         <v>85.45</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="7">
         <v>86.29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="6">
-        <v>44543</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="7">
         <v>90.97</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="7">
         <v>88.37</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="7">
         <v>85.27</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="7">
         <v>86.51</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="7">
         <v>87.67</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="6">
-        <v>44544</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="7">
         <v>89.97</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="7">
         <v>87.52</v>
       </c>
-      <c r="D53" s="3">
+      <c r="E53" s="7">
         <v>85.14</v>
       </c>
-      <c r="E53" s="3">
+      <c r="F53" s="7">
         <v>86.07</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="7">
         <v>87.17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="6">
-        <v>44545</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="7">
         <v>87.29</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="7">
         <v>84.84</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="7">
         <v>83.8</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="7">
         <v>84.66</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="7">
         <v>85.76</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="6">
-        <v>44546</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="7">
         <v>87.55</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="7">
         <v>85.14</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="7">
         <v>84.8</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="7">
         <v>85.41</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="7">
         <v>86.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="6">
-        <v>44547</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="7">
         <v>88.47</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="7">
         <v>86.03</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E56" s="7">
         <v>84.9</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="7">
         <v>85.29</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="7">
         <v>86.36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="6">
-        <v>44550</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="7">
         <v>84.67</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="7">
         <v>82.87</v>
       </c>
-      <c r="D57" s="3">
+      <c r="E57" s="7">
         <v>80.94</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="7">
         <v>81.47</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="7">
         <v>82.55</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="6">
-        <v>44551</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="7">
         <v>85.88</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="7">
         <v>84.08</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="7">
         <v>80.45</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="7">
         <v>81.59</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="7">
         <v>82.67</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="6">
-        <v>44552</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="7">
         <v>87.91</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="7">
         <v>86.11</v>
       </c>
-      <c r="D59" s="3">
+      <c r="E59" s="7">
         <v>83.19</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="7">
         <v>84.27</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="7">
         <v>85.49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="6">
-        <v>44553</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="7">
         <v>89.32</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="7">
         <v>87.62</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="7">
         <v>84.56</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="7">
         <v>85.95</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="7">
         <v>87.17</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="6">
-        <v>44554</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="7">
         <v>90.44</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="7">
         <v>88.5</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="7">
         <v>84.71</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="7">
         <v>86.14</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="7">
         <v>87.37</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="6">
-        <v>44558</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="7">
         <v>91.52</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="7">
         <v>89.59</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="7">
         <v>87.11</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="7">
         <v>89.05</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="7">
         <v>90.38</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="6">
-        <v>44559</v>
-      </c>
-      <c r="B63" s="2">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="7">
         <v>92.25</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="7">
         <v>90.32</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="7">
         <v>87.53</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="7">
         <v>89.52</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="7">
         <v>90.85</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="6">
-        <v>44560</v>
-      </c>
-      <c r="B64" s="2">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="7">
         <v>92.83</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="7">
         <v>90.9</v>
       </c>
-      <c r="D64" s="3">
+      <c r="E64" s="7">
         <v>86.97</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="7">
         <v>89.27</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="7">
         <v>90.6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A65" s="6">
-        <v>44561</v>
-      </c>
-      <c r="B65" s="2">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="7">
         <v>92.69</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="7">
         <v>90.63</v>
       </c>
-      <c r="D65" s="3">
+      <c r="E65" s="7">
         <v>86.86</v>
       </c>
-      <c r="E65" s="3">
+      <c r="F65" s="7">
         <v>89.38</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="7">
         <v>90.53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A66" s="6">
-        <v>44564</v>
-      </c>
-      <c r="B66" s="2">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="7">
         <v>92.64</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="7">
         <v>90.64</v>
       </c>
-      <c r="D66" s="3">
+      <c r="E66" s="7">
         <v>86.49</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="7">
         <v>89.17</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="7">
         <v>90.34</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A67" s="6">
-        <v>44565</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="7">
         <v>93.34</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="7">
         <v>91.35</v>
       </c>
-      <c r="D67" s="3">
+      <c r="E67" s="7">
         <v>86.91</v>
       </c>
-      <c r="E67" s="3">
+      <c r="F67" s="7">
         <v>90.18</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="7">
         <v>91.35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="6">
-        <v>44566</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="7">
         <v>93.27</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="7">
         <v>91.28</v>
       </c>
-      <c r="D68" s="3">
+      <c r="E68" s="7">
         <v>88.7</v>
       </c>
-      <c r="E68" s="3">
+      <c r="F68" s="7">
         <v>91.49</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="7">
         <v>92.64</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="6">
-        <v>44567</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="7">
         <v>93.47</v>
       </c>
-      <c r="C69" s="3">
+      <c r="D69" s="7">
         <v>91.48</v>
       </c>
-      <c r="D69" s="3">
+      <c r="E69" s="7">
         <v>89.39</v>
       </c>
-      <c r="E69" s="3">
+      <c r="F69" s="7">
         <v>92.03</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G69" s="7">
         <v>93.12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="6">
-        <v>44568</v>
-      </c>
-      <c r="B70" s="2">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="7">
         <v>94.71</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="7">
         <v>92.82</v>
       </c>
-      <c r="D70" s="3">
+      <c r="E70" s="7">
         <v>91.45</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="7">
         <v>93.58</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="7">
         <v>94.59</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="6">
-        <v>44571</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="7">
         <v>94.64</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="7">
         <v>92.75</v>
       </c>
-      <c r="D71" s="3">
+      <c r="E71" s="7">
         <v>92.6</v>
       </c>
-      <c r="E71" s="3">
+      <c r="F71" s="7">
         <v>93.73</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G71" s="7">
         <v>94.9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="6">
-        <v>44572</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="7">
         <v>93.66</v>
       </c>
-      <c r="C72" s="3">
+      <c r="D72" s="7">
         <v>91.77</v>
       </c>
-      <c r="D72" s="3">
+      <c r="E72" s="7">
         <v>92.16</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="7">
         <v>93.42</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="7">
         <v>94.7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="6">
-        <v>44573</v>
-      </c>
-      <c r="B73" s="2">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="7">
         <v>95.86</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="7">
         <v>94.49</v>
       </c>
-      <c r="D73" s="3">
+      <c r="E73" s="7">
         <v>94.97</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="7">
         <v>96.21</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G73" s="7">
         <v>97.71</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="6">
-        <v>44574</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="7">
         <v>97.39</v>
       </c>
-      <c r="C74" s="3">
+      <c r="D74" s="7">
         <v>95.73</v>
       </c>
-      <c r="D74" s="3">
+      <c r="E74" s="7">
         <v>95.79</v>
       </c>
-      <c r="E74" s="3">
+      <c r="F74" s="7">
         <v>97.21</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G74" s="7">
         <v>98.7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="6">
-        <v>44575</v>
-      </c>
-      <c r="B75" s="2">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="7">
         <v>97.54</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="7">
         <v>95.74</v>
       </c>
-      <c r="D75" s="3">
+      <c r="E75" s="7">
         <v>96.8</v>
       </c>
-      <c r="E75" s="3">
+      <c r="F75" s="7">
         <v>98.5</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G75" s="7">
         <v>100.03</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="6">
-        <v>44578</v>
-      </c>
-      <c r="B76" s="2">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="7">
         <v>98.63</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="7">
         <v>97.2</v>
       </c>
-      <c r="D76" s="3">
+      <c r="E76" s="7">
         <v>98.5</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="7">
         <v>99.91</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="7">
         <v>101.47</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="6">
-        <v>44579</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A77" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="7">
         <v>100.51</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="7">
         <v>98.73</v>
       </c>
-      <c r="D77" s="3">
+      <c r="E77" s="7">
         <v>100.35</v>
       </c>
-      <c r="E77" s="3">
+      <c r="F77" s="7">
         <v>101.72</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G77" s="7">
         <v>103.22</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="6">
-        <v>44580</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="7">
         <v>99.54</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="7">
         <v>97.77</v>
       </c>
-      <c r="D78" s="3">
+      <c r="E78" s="7">
         <v>98.57</v>
       </c>
-      <c r="E78" s="3">
+      <c r="F78" s="7">
         <v>100.53</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G78" s="7">
         <v>102.03</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="6">
-        <v>44581</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="7">
         <v>99.84</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="7">
         <v>98.04</v>
       </c>
-      <c r="D79" s="3">
+      <c r="E79" s="7">
         <v>98.15</v>
       </c>
-      <c r="E79" s="3">
+      <c r="F79" s="7">
         <v>100.68</v>
       </c>
-      <c r="F79" s="3">
+      <c r="G79" s="7">
         <v>101.86</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A80" s="6">
-        <v>44582</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="7">
         <v>99.09</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="7">
         <v>97.3</v>
       </c>
-      <c r="D80" s="3">
+      <c r="E80" s="7">
         <v>96.85</v>
       </c>
-      <c r="E80" s="3">
+      <c r="F80" s="7">
         <v>99.24</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G80" s="7">
         <v>100.56</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A81" s="6">
-        <v>44585</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="7">
         <v>100.75</v>
       </c>
-      <c r="C81" s="3">
+      <c r="D81" s="7">
         <v>98.96</v>
       </c>
-      <c r="D81" s="3">
+      <c r="E81" s="7">
         <v>99.39</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="7">
         <v>101.96</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="7">
         <v>103.22</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A82" s="6">
-        <v>44586</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A82" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="7">
         <v>99.85</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="7">
         <v>98.04</v>
       </c>
-      <c r="D82" s="3">
+      <c r="E82" s="7">
         <v>97.79</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="7">
         <v>100.43</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G82" s="7">
         <v>101.68</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="6">
-        <v>44587</v>
-      </c>
-      <c r="B83" s="2">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="7">
         <v>101.86</v>
       </c>
-      <c r="C83" s="3">
+      <c r="D83" s="7">
         <v>100.05</v>
       </c>
-      <c r="D83" s="3">
+      <c r="E83" s="7">
         <v>99.32</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="7">
         <v>101.74</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="7">
         <v>103.1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="6">
-        <v>44588</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="7">
         <v>103.51</v>
       </c>
-      <c r="C84" s="3">
+      <c r="D84" s="7">
         <v>101.48</v>
       </c>
-      <c r="D84" s="3">
+      <c r="E84" s="7">
         <v>101.24</v>
       </c>
-      <c r="E84" s="3">
+      <c r="F84" s="7">
         <v>103.39</v>
       </c>
-      <c r="F84" s="3">
+      <c r="G84" s="7">
         <v>104.72</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="6">
-        <v>44589</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="7">
         <v>104.24</v>
       </c>
-      <c r="C85" s="3">
+      <c r="D85" s="7">
         <v>101.71</v>
       </c>
-      <c r="D85" s="3">
+      <c r="E85" s="7">
         <v>101.66</v>
       </c>
-      <c r="E85" s="3">
+      <c r="F85" s="7">
         <v>104.45</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G85" s="7">
         <v>105.78</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="6">
-        <v>44592</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="7">
         <v>105.41</v>
       </c>
-      <c r="C86" s="3">
+      <c r="D86" s="7">
         <v>102.42</v>
       </c>
-      <c r="D86" s="3">
+      <c r="E86" s="7">
         <v>102.48</v>
       </c>
-      <c r="E86" s="3">
+      <c r="F86" s="7">
         <v>105.38</v>
       </c>
-      <c r="F86" s="3">
+      <c r="G86" s="7">
         <v>106.63</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="6">
-        <v>44595</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="7">
         <v>106.17</v>
       </c>
-      <c r="C87" s="3">
+      <c r="D87" s="7">
         <v>103.27</v>
       </c>
-      <c r="D87" s="3">
+      <c r="E87" s="7">
         <v>102.52</v>
       </c>
-      <c r="E87" s="3">
+      <c r="F87" s="7">
         <v>104.65</v>
       </c>
-      <c r="F87" s="3">
+      <c r="G87" s="7">
         <v>106.01</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="6">
-        <v>44596</v>
-      </c>
-      <c r="B88" s="2">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A88" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="7">
         <v>107.5</v>
       </c>
-      <c r="C88" s="3">
+      <c r="D88" s="7">
         <v>104.93</v>
       </c>
-      <c r="D88" s="3">
+      <c r="E88" s="7">
         <v>105.38</v>
       </c>
-      <c r="E88" s="3">
+      <c r="F88" s="7">
         <v>107.4</v>
       </c>
-      <c r="F88" s="3">
+      <c r="G88" s="7">
         <v>108.76</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="6">
-        <v>44599</v>
-      </c>
-      <c r="B89" s="2">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A89" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="7">
         <v>107.79</v>
       </c>
-      <c r="C89" s="3">
+      <c r="D89" s="7">
         <v>105.26</v>
       </c>
-      <c r="D89" s="3">
+      <c r="E89" s="7">
         <v>106.03</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="7">
         <v>109.38</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="7">
         <v>110.38</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="6">
-        <v>44600</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="7">
         <v>107.2</v>
       </c>
-      <c r="C90" s="3">
+      <c r="D90" s="7">
         <v>105.43</v>
       </c>
-      <c r="D90" s="3">
+      <c r="E90" s="7">
         <v>104.44</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="7">
         <v>108.62</v>
       </c>
-      <c r="F90" s="3">
+      <c r="G90" s="7">
         <v>109.31</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="6">
-        <v>44601</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="7">
         <v>106.74</v>
       </c>
-      <c r="C91" s="3">
+      <c r="D91" s="7">
         <v>104.97</v>
       </c>
-      <c r="D91" s="3">
+      <c r="E91" s="7">
         <v>102.81</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="7">
         <v>107.33</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="7">
         <v>107.82</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="6">
-        <v>44602</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="7">
         <v>109.72</v>
       </c>
-      <c r="C92" s="3">
+      <c r="D92" s="7">
         <v>107.72</v>
       </c>
-      <c r="D92" s="3">
+      <c r="E92" s="7">
         <v>105.36</v>
       </c>
-      <c r="E92" s="3">
+      <c r="F92" s="7">
         <v>108.94</v>
       </c>
-      <c r="F92" s="3">
+      <c r="G92" s="7">
         <v>109.45</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="6">
-        <v>44603</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A93" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="7">
         <v>109.4</v>
       </c>
-      <c r="C93" s="3">
+      <c r="D93" s="7">
         <v>107.4</v>
       </c>
-      <c r="D93" s="3">
+      <c r="E93" s="7">
         <v>104.64</v>
       </c>
-      <c r="E93" s="3">
+      <c r="F93" s="7">
         <v>108.17</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G93" s="7">
         <v>108.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="6">
-        <v>44606</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A94" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="7">
         <v>112.67</v>
       </c>
-      <c r="C94" s="3">
+      <c r="D94" s="7">
         <v>110.25</v>
       </c>
-      <c r="D94" s="3">
+      <c r="E94" s="7">
         <v>107.44</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="7">
         <v>111.58</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="7">
         <v>112.4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="6">
-        <v>44607</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="7">
         <v>112.37</v>
       </c>
-      <c r="C95" s="3">
+      <c r="D95" s="7">
         <v>109.91</v>
       </c>
-      <c r="D95" s="3">
+      <c r="E95" s="7">
         <v>107.18</v>
       </c>
-      <c r="E95" s="3">
+      <c r="F95" s="7">
         <v>111.05</v>
       </c>
-      <c r="F95" s="3">
+      <c r="G95" s="7">
         <v>111.73</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="6">
-        <v>44608</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A96" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="7">
         <v>111.53</v>
       </c>
-      <c r="C96" s="3">
+      <c r="D96" s="7">
         <v>109.07</v>
       </c>
-      <c r="D96" s="3">
+      <c r="E96" s="7">
         <v>106.67</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="7">
         <v>110.87</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="7">
         <v>111.56</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="6">
-        <v>44609</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A97" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="7">
         <v>109.76</v>
       </c>
-      <c r="C97" s="3">
+      <c r="D97" s="7">
         <v>107.3</v>
       </c>
-      <c r="D97" s="3">
+      <c r="E97" s="7">
         <v>105.23</v>
       </c>
-      <c r="E97" s="3">
+      <c r="F97" s="7">
         <v>109.41</v>
       </c>
-      <c r="F97" s="3">
+      <c r="G97" s="7">
         <v>110.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="6">
-        <v>44610</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A98" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="7">
         <v>108.2</v>
       </c>
-      <c r="C98" s="3">
+      <c r="D98" s="7">
         <v>105.74</v>
       </c>
-      <c r="D98" s="3">
+      <c r="E98" s="7">
         <v>102.99</v>
       </c>
-      <c r="E98" s="3">
+      <c r="F98" s="7">
         <v>107.14</v>
       </c>
-      <c r="F98" s="3">
+      <c r="G98" s="7">
         <v>107.9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="6">
-        <v>44613</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="7">
         <v>109.34</v>
       </c>
-      <c r="C99" s="3">
+      <c r="D99" s="7">
         <v>106.88</v>
       </c>
-      <c r="D99" s="3">
+      <c r="E99" s="7">
         <v>103.62</v>
       </c>
-      <c r="E99" s="3">
+      <c r="F99" s="7">
         <v>107.8</v>
       </c>
-      <c r="F99" s="3">
+      <c r="G99" s="7">
         <v>108.54</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="6">
-        <v>44614</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A100" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="7">
         <v>114.67</v>
       </c>
-      <c r="C100" s="3">
+      <c r="D100" s="7">
         <v>111.74</v>
       </c>
-      <c r="D100" s="3">
+      <c r="E100" s="7">
         <v>109.19</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="7">
         <v>113.27</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="7">
         <v>113.81</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A101" s="6">
-        <v>44615</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="7">
         <v>112.3</v>
       </c>
-      <c r="C101" s="3">
+      <c r="D101" s="7">
         <v>109.37</v>
       </c>
-      <c r="D101" s="3">
+      <c r="E101" s="7">
         <v>106</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="7">
         <v>110.04</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="7">
         <v>110.58</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A102" s="6">
-        <v>44616</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="7">
         <v>117.26</v>
       </c>
-      <c r="C102" s="3">
+      <c r="D102" s="7">
         <v>114.33</v>
       </c>
-      <c r="D102" s="3">
+      <c r="E102" s="7">
         <v>111.35</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="7">
         <v>115.86</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="7">
         <v>116.4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A103" s="6">
-        <v>44617</v>
-      </c>
-      <c r="B103" s="2">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A103" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="7">
         <v>115.63</v>
       </c>
-      <c r="C103" s="3">
+      <c r="D103" s="7">
         <v>112.7</v>
       </c>
-      <c r="D103" s="3">
+      <c r="E103" s="7">
         <v>109.89</v>
       </c>
-      <c r="E103" s="3">
+      <c r="F103" s="7">
         <v>114.28</v>
       </c>
-      <c r="F103" s="3">
+      <c r="G103" s="7">
         <v>114.82</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="6">
-        <v>44620</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A104" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="7">
         <v>116.26</v>
       </c>
-      <c r="C104" s="3">
+      <c r="D104" s="7">
         <v>113.33</v>
       </c>
-      <c r="D104" s="3">
+      <c r="E104" s="7">
         <v>110.79</v>
       </c>
-      <c r="E104" s="3">
+      <c r="F104" s="7">
         <v>114.97</v>
       </c>
-      <c r="F104" s="3">
+      <c r="G104" s="7">
         <v>115.51</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="6">
-        <v>44621</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A105" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="7">
         <v>117.23</v>
       </c>
-      <c r="C105" s="3">
+      <c r="D105" s="7">
         <v>114.4</v>
       </c>
-      <c r="D105" s="3">
+      <c r="E105" s="7">
         <v>113.2</v>
       </c>
-      <c r="E105" s="3">
+      <c r="F105" s="7">
         <v>117.37</v>
       </c>
-      <c r="F105" s="3">
+      <c r="G105" s="7">
         <v>117.87</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="6">
-        <v>44622</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A106" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="7">
         <v>125.58</v>
       </c>
-      <c r="C106" s="3">
+      <c r="D106" s="7">
         <v>122.75</v>
       </c>
-      <c r="D106" s="3">
+      <c r="E106" s="7">
         <v>120.92</v>
       </c>
-      <c r="E106" s="3">
+      <c r="F106" s="7">
         <v>129.03</v>
       </c>
-      <c r="F106" s="3">
+      <c r="G106" s="7">
         <v>129.77000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="6">
-        <v>44623</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A107" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="7">
         <v>133.41999999999999</v>
       </c>
-      <c r="C107" s="3">
+      <c r="D107" s="7">
         <v>130.59</v>
       </c>
-      <c r="D107" s="3">
+      <c r="E107" s="7">
         <v>124.57</v>
       </c>
-      <c r="E107" s="3">
+      <c r="F107" s="7">
         <v>136.68</v>
       </c>
-      <c r="F107" s="3">
+      <c r="G107" s="7">
         <v>137.88</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="6">
-        <v>44624</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A108" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="7">
         <v>127.82</v>
       </c>
-      <c r="C108" s="3">
+      <c r="D108" s="7">
         <v>123.96</v>
       </c>
-      <c r="D108" s="3">
+      <c r="E108" s="7">
         <v>126.01</v>
       </c>
-      <c r="E108" s="3">
+      <c r="F108" s="7">
         <v>136.06</v>
       </c>
-      <c r="F108" s="3">
+      <c r="G108" s="7">
         <v>137.52000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="6">
-        <v>44627</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A109" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="7">
         <v>145.93</v>
       </c>
-      <c r="C109" s="3">
+      <c r="D109" s="7">
         <v>142.07</v>
       </c>
-      <c r="D109" s="3">
+      <c r="E109" s="7">
         <v>148.46</v>
       </c>
-      <c r="E109" s="3">
+      <c r="F109" s="7">
         <v>158.53</v>
       </c>
-      <c r="F109" s="3">
+      <c r="G109" s="7">
         <v>160.87</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="6">
-        <v>44628</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A110" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="7">
         <v>144.91999999999999</v>
       </c>
-      <c r="C110" s="3">
+      <c r="D110" s="7">
         <v>141.05000000000001</v>
       </c>
-      <c r="D110" s="3">
+      <c r="E110" s="7">
         <v>147.79</v>
       </c>
-      <c r="E110" s="3">
+      <c r="F110" s="7">
         <v>157.72999999999999</v>
       </c>
-      <c r="F110" s="3">
+      <c r="G110" s="7">
         <v>160.53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="6">
-        <v>44629</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A111" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="7">
         <v>153.80000000000001</v>
       </c>
-      <c r="C111" s="3">
+      <c r="D111" s="7">
         <v>149.88</v>
       </c>
-      <c r="D111" s="3">
+      <c r="E111" s="7">
         <v>161.54</v>
       </c>
-      <c r="E111" s="3">
+      <c r="F111" s="7">
         <v>176.37</v>
       </c>
-      <c r="F111" s="3">
+      <c r="G111" s="7">
         <v>180.97</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="6">
-        <v>44630</v>
-      </c>
-      <c r="B112" s="2">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A112" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="7">
         <v>137.58000000000001</v>
       </c>
-      <c r="C112" s="3">
+      <c r="D112" s="7">
         <v>133.66</v>
       </c>
-      <c r="D112" s="3">
+      <c r="E112" s="7">
         <v>139.86000000000001</v>
       </c>
-      <c r="E112" s="3">
+      <c r="F112" s="7">
         <v>150.15</v>
       </c>
-      <c r="F112" s="3">
+      <c r="G112" s="7">
         <v>155.91999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="6">
-        <v>44631</v>
-      </c>
-      <c r="B113" s="2">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A113" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="7">
         <v>129.37</v>
       </c>
-      <c r="C113" s="3">
+      <c r="D113" s="7">
         <v>125.45</v>
       </c>
-      <c r="D113" s="3">
+      <c r="E113" s="7">
         <v>122.64</v>
       </c>
-      <c r="E113" s="3">
+      <c r="F113" s="7">
         <v>128.25</v>
       </c>
-      <c r="F113" s="3">
+      <c r="G113" s="7">
         <v>134.02000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="6">
-        <v>44634</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A114" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="7">
         <v>129.31</v>
       </c>
-      <c r="C114" s="3">
+      <c r="D114" s="7">
         <v>125.39</v>
       </c>
-      <c r="D114" s="3">
+      <c r="E114" s="7">
         <v>121.78</v>
       </c>
-      <c r="E114" s="3">
+      <c r="F114" s="7">
         <v>123.14</v>
       </c>
-      <c r="F114" s="3">
+      <c r="G114" s="7">
         <v>128.91</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="6">
-        <v>44635</v>
-      </c>
-      <c r="B115" s="2">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A115" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="7">
         <v>119.62</v>
       </c>
-      <c r="C115" s="3">
+      <c r="D115" s="7">
         <v>115.69</v>
       </c>
-      <c r="D115" s="3">
+      <c r="E115" s="7">
         <v>112.59</v>
       </c>
-      <c r="E115" s="3">
+      <c r="F115" s="7">
         <v>111.76</v>
       </c>
-      <c r="F115" s="3">
+      <c r="G115" s="7">
         <v>117.13</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="6">
-        <v>44636</v>
-      </c>
-      <c r="B116" s="2">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A116" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="7">
         <v>123.81</v>
       </c>
-      <c r="C116" s="3">
+      <c r="D116" s="7">
         <v>119.88</v>
       </c>
-      <c r="D116" s="3">
+      <c r="E116" s="7">
         <v>115.96</v>
       </c>
-      <c r="E116" s="3">
+      <c r="F116" s="7">
         <v>117.72</v>
       </c>
-      <c r="F116" s="3">
+      <c r="G116" s="7">
         <v>122.58</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="6">
-        <v>44637</v>
-      </c>
-      <c r="B117" s="2">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A117" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="7">
         <v>123.57</v>
       </c>
-      <c r="C117" s="3">
+      <c r="D117" s="7">
         <v>119.64</v>
       </c>
-      <c r="D117" s="3">
+      <c r="E117" s="7">
         <v>121.26</v>
       </c>
-      <c r="E117" s="3">
+      <c r="F117" s="7">
         <v>123.17</v>
       </c>
-      <c r="F117" s="3">
+      <c r="G117" s="7">
         <v>127.77</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="6">
-        <v>44638</v>
-      </c>
-      <c r="B118" s="2">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A118" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="7">
         <v>129.16999999999999</v>
       </c>
-      <c r="C118" s="3">
+      <c r="D118" s="7">
         <v>125.25</v>
       </c>
-      <c r="D118" s="3">
+      <c r="E118" s="7">
         <v>127.98</v>
       </c>
-      <c r="E118" s="3">
+      <c r="F118" s="7">
         <v>130.19999999999999</v>
       </c>
-      <c r="F118" s="3">
+      <c r="G118" s="7">
         <v>134.94999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A119" s="6">
-        <v>44641</v>
-      </c>
-      <c r="B119" s="2">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A119" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="7">
         <v>132.11000000000001</v>
       </c>
-      <c r="C119" s="3">
+      <c r="D119" s="7">
         <v>129.21</v>
       </c>
-      <c r="D119" s="3">
+      <c r="E119" s="7">
         <v>137.16</v>
       </c>
-      <c r="E119" s="3">
+      <c r="F119" s="7">
         <v>140.03</v>
       </c>
-      <c r="F119" s="3">
+      <c r="G119" s="7">
         <v>144.76</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A120" s="6">
-        <v>44642</v>
-      </c>
-      <c r="B120" s="2">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A120" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="7">
         <v>133.25</v>
       </c>
-      <c r="C120" s="3">
+      <c r="D120" s="7">
         <v>129.31</v>
       </c>
-      <c r="D120" s="3">
+      <c r="E120" s="7">
         <v>137.78</v>
       </c>
-      <c r="E120" s="3">
+      <c r="F120" s="7">
         <v>139.54</v>
       </c>
-      <c r="F120" s="3">
+      <c r="G120" s="7">
         <v>144.22</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A121" s="6">
-        <v>44643</v>
-      </c>
-      <c r="B121" s="2">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A121" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="7">
         <v>133.47</v>
       </c>
-      <c r="C121" s="3">
+      <c r="D121" s="7">
         <v>129.52000000000001</v>
       </c>
-      <c r="D121" s="3">
+      <c r="E121" s="7">
         <v>143.22</v>
       </c>
-      <c r="E121" s="3">
+      <c r="F121" s="7">
         <v>143.41999999999999</v>
       </c>
-      <c r="F121" s="3">
+      <c r="G121" s="7">
         <v>147.77000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A122" s="6">
-        <v>44644</v>
-      </c>
-      <c r="B122" s="2">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A122" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="7">
         <v>136.32</v>
       </c>
-      <c r="C122" s="3">
+      <c r="D122" s="7">
         <v>132.38</v>
       </c>
-      <c r="D122" s="3">
+      <c r="E122" s="7">
         <v>149.41999999999999</v>
       </c>
-      <c r="E122" s="3">
+      <c r="F122" s="7">
         <v>149.02000000000001</v>
       </c>
-      <c r="F122" s="3">
+      <c r="G122" s="7">
         <v>153.37</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="6">
-        <v>44645</v>
-      </c>
-      <c r="B123" s="2">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="7">
         <v>129.85</v>
       </c>
-      <c r="C123" s="3">
+      <c r="D123" s="7">
         <v>125.98</v>
       </c>
-      <c r="D123" s="3">
+      <c r="E123" s="7">
         <v>142.04</v>
       </c>
-      <c r="E123" s="3">
+      <c r="F123" s="7">
         <v>144.30000000000001</v>
       </c>
-      <c r="F123" s="3">
+      <c r="G123" s="7">
         <v>148.81</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="6">
-        <v>44648</v>
-      </c>
-      <c r="B124" s="2">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A124" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="7">
         <v>129.72</v>
       </c>
-      <c r="C124" s="3">
+      <c r="D124" s="7">
         <v>126.28</v>
       </c>
-      <c r="D124" s="3">
+      <c r="E124" s="7">
         <v>142.25</v>
       </c>
-      <c r="E124" s="3">
+      <c r="F124" s="7">
         <v>142.44</v>
       </c>
-      <c r="F124" s="3">
+      <c r="G124" s="7">
         <v>147.76</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="6">
-        <v>44649</v>
-      </c>
-      <c r="B125" s="2">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A125" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="7">
         <v>127.07</v>
       </c>
-      <c r="C125" s="3">
+      <c r="D125" s="7">
         <v>123.53</v>
       </c>
-      <c r="D125" s="3">
+      <c r="E125" s="7">
         <v>138.05000000000001</v>
       </c>
-      <c r="E125" s="3">
+      <c r="F125" s="7">
         <v>137.93</v>
       </c>
-      <c r="F125" s="3">
+      <c r="G125" s="7">
         <v>143.61000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="6">
-        <v>44650</v>
-      </c>
-      <c r="B126" s="2">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A126" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="7">
         <v>127.34</v>
       </c>
-      <c r="C126" s="3">
+      <c r="D126" s="7">
         <v>123.8</v>
       </c>
-      <c r="D126" s="3">
+      <c r="E126" s="7">
         <v>138.55000000000001</v>
       </c>
-      <c r="E126" s="3">
+      <c r="F126" s="7">
         <v>136.6</v>
       </c>
-      <c r="F126" s="3">
+      <c r="G126" s="7">
         <v>142.93</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="6">
-        <v>44651</v>
-      </c>
-      <c r="B127" s="2">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A127" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="7">
         <v>126.1</v>
       </c>
-      <c r="C127" s="3">
+      <c r="D127" s="7">
         <v>121.87</v>
       </c>
-      <c r="D127" s="3">
+      <c r="E127" s="7">
         <v>136.88</v>
       </c>
-      <c r="E127" s="3">
+      <c r="F127" s="7">
         <v>133.62</v>
       </c>
-      <c r="F127" s="3">
+      <c r="G127" s="7">
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="6">
-        <v>44652</v>
-      </c>
-      <c r="B128" s="2">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="7">
         <v>121.9</v>
       </c>
-      <c r="C128" s="3">
+      <c r="D128" s="7">
         <v>117.78</v>
       </c>
-      <c r="D128" s="3">
+      <c r="E128" s="7">
         <v>133.1</v>
       </c>
-      <c r="E128" s="3">
+      <c r="F128" s="7">
         <v>131.18</v>
       </c>
-      <c r="F128" s="3">
+      <c r="G128" s="7">
         <v>138.75</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="6">
-        <v>44655</v>
-      </c>
-      <c r="B129" s="2">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A129" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="7">
         <v>123.57</v>
       </c>
-      <c r="C129" s="3">
+      <c r="D129" s="7">
         <v>120.13</v>
       </c>
-      <c r="D129" s="3">
+      <c r="E129" s="7">
         <v>135.63999999999999</v>
       </c>
-      <c r="E129" s="3">
+      <c r="F129" s="7">
         <v>138.12</v>
       </c>
-      <c r="F129" s="3">
+      <c r="G129" s="7">
         <v>145.69</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="6">
-        <v>44656</v>
-      </c>
-      <c r="B130" s="2">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A130" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="7">
         <v>126.35</v>
       </c>
-      <c r="C130" s="3">
+      <c r="D130" s="7">
         <v>123.5</v>
       </c>
-      <c r="D130" s="3">
+      <c r="E130" s="7">
         <v>134.79</v>
       </c>
-      <c r="E130" s="3">
+      <c r="F130" s="7">
         <v>138.28</v>
       </c>
-      <c r="F130" s="3">
+      <c r="G130" s="7">
         <v>146.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.95">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.95">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.95">
+      <c r="A131" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="7">
+        <v>125.52</v>
+      </c>
+      <c r="D131" s="7">
+        <v>122.53</v>
+      </c>
+      <c r="E131" s="7">
+        <v>133.66</v>
+      </c>
+      <c r="F131" s="7">
+        <v>138.09</v>
+      </c>
+      <c r="G131" s="7">
+        <v>146.36000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.95">
+      <c r="A132" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="7">
+        <v>121.56</v>
+      </c>
+      <c r="D132" s="7">
+        <v>118.04</v>
+      </c>
+      <c r="E132" s="7">
+        <v>126.2</v>
+      </c>
+      <c r="F132" s="7">
+        <v>130.82</v>
+      </c>
+      <c r="G132" s="7">
+        <v>139.16999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.95">
+      <c r="A133" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="7">
+        <v>121.64</v>
+      </c>
+      <c r="D133" s="7">
+        <v>118.54</v>
+      </c>
+      <c r="E133" s="7">
+        <v>124.73</v>
+      </c>
+      <c r="F133" s="7">
+        <v>129.63999999999999</v>
+      </c>
+      <c r="G133" s="7">
+        <v>137.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.95">
+      <c r="A134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="7">
+        <v>120.72</v>
+      </c>
+      <c r="D134" s="7">
+        <v>117.49</v>
+      </c>
+      <c r="E134" s="7">
+        <v>124.31</v>
+      </c>
+      <c r="F134" s="7">
+        <v>129.12</v>
+      </c>
+      <c r="G134" s="7">
+        <v>137.63999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.95">
+      <c r="A135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="7">
+        <v>118.94</v>
+      </c>
+      <c r="D135" s="7">
+        <v>116.08</v>
+      </c>
+      <c r="E135" s="7">
+        <v>126.77</v>
+      </c>
+      <c r="F135" s="7">
+        <v>131.96</v>
+      </c>
+      <c r="G135" s="7">
+        <v>141.47999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.95">
+      <c r="A136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="7">
+        <v>123.52</v>
+      </c>
+      <c r="D136" s="7">
+        <v>120.86</v>
+      </c>
+      <c r="E136" s="7">
+        <v>131.51</v>
+      </c>
+      <c r="F136" s="7">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="G136" s="7">
+        <v>148.41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A132:F132"/>
+  <mergeCells count="136">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>